--- a/biology/Zoologie/Ginglymostoma/Ginglymostoma.xlsx
+++ b/biology/Zoologie/Ginglymostoma/Ginglymostoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Requins nourrice (genre Ginglymostoma) forment un genre de requins de la famille des Ginglymostomatidae, constitué de deux espèces. 
 </t>
@@ -511,13 +523,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ce genre comprend deux espèces depuis 2015 : 
 Ginglymostoma cirratum (Bonnaterre, 1788) -- océan Atlantique tropical
 Ginglymostoma unami Del Moral-Flores, Ramírez-Antonio, Angulo &amp; de León, 2015 -- océan Pacifique tropical oriental
-G. unami a été décrit en 2015, et n'est pas encore intégré à toutes les bases de données taxinomiques. Avant 2015, Ginglymostoma cirratum était considéré comme la seule espèce de requins de genre Ginglymostoma[1].
-Espèce fossiles selon Paleobiology Database                   (20 avril 2016)[2] :
+G. unami a été décrit en 2015, et n'est pas encore intégré à toutes les bases de données taxinomiques. Avant 2015, Ginglymostoma cirratum était considéré comme la seule espèce de requins de genre Ginglymostoma.
+Espèce fossiles selon Paleobiology Database                   (20 avril 2016) :
 Ginglymostoma angolense
 Ginglymostoma blankenhorni
 Ginglymostoma delfortriei
